--- a/docs/9_要件定義技法ガイド/チェックリスト/要件定義計画チェックリスト.xlsx
+++ b/docs/9_要件定義技法ガイド/チェックリスト/要件定義計画チェックリスト.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">要件定義計画チェックシート!$A:$M</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">要件定義計画チェックシート!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5225,16 +5225,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="17"/>
   </si>
@@ -5449,6 +5439,10 @@
     <rPh sb="50" eb="52">
       <t>ボウシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6358,7 +6352,9 @@
   </sheetPr>
   <dimension ref="A1:AH511"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7467,9 +7463,7 @@
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
-      <c r="R31" s="36" t="s">
-        <v>213</v>
-      </c>
+      <c r="R31" s="36"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -7742,12 +7736,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -7762,7 +7756,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S39" s="40"/>
       <c r="T39" s="26"/>
@@ -7781,7 +7775,11 @@
       <c r="AG39" s="26"/>
       <c r="AH39" s="26"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8259,7 +8257,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -8337,13 +8335,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -9194,7 +9192,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>199</v>
@@ -9219,7 +9217,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>106</v>
@@ -9395,7 +9393,7 @@
         <v>147</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="6"/>
@@ -9404,10 +9402,10 @@
       <c r="I39" s="10"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>17</v>

--- a/docs/9_要件定義技法ガイド/チェックリスト/要件定義計画チェックリスト.xlsx
+++ b/docs/9_要件定義技法ガイド/チェックリスト/要件定義計画チェックリスト.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">要件定義計画チェックシート!$A:$M</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">要件定義計画チェックシート!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -5225,6 +5225,16 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="17"/>
   </si>
@@ -5439,10 +5449,6 @@
     <rPh sb="50" eb="52">
       <t>ボウシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6352,9 +6358,7 @@
   </sheetPr>
   <dimension ref="A1:AH511"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7463,7 +7467,9 @@
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="36" t="s">
+        <v>213</v>
+      </c>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -7736,12 +7742,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -7756,7 +7762,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S39" s="40"/>
       <c r="T39" s="26"/>
@@ -7775,11 +7781,7 @@
       <c r="AG39" s="26"/>
       <c r="AH39" s="26"/>
     </row>
-    <row r="40" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8257,7 +8259,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -8335,13 +8337,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -9192,7 +9194,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>199</v>
@@ -9217,7 +9219,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>106</v>
@@ -9393,7 +9395,7 @@
         <v>147</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="6"/>
@@ -9402,10 +9404,10 @@
       <c r="I39" s="10"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>17</v>
